--- a/db/queries/predicted/ATBI-N1-N1-CodeS-queries-predicted.xlsx
+++ b/db/queries/predicted/ATBI-N1-N1-CodeS-queries-predicted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
@@ -504,14 +499,9 @@
           <t>tab_naturalness_modifier</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>query_stats</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -576,14 +566,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'commonname'}, {'select element': '1'}, {'column': 'spcode'}, {'select element': '1'}, {'column': 'genus'}, {'select element': '1'}, {'column': 'subgenus'}, {'table source item': '1'}, {'table': 'tbl_nests'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'predicate': '1'}, {'column': 'spcode'}, {'column': 'speciescode'}, {'order by': '1'}, {'column': 'commonname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -648,14 +633,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'commonname'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'where': '1'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'spcode'}, {'table source item': '1'}, {'table': 'tbl_nests'}, {'negation': '1'}, {'column': 'speciescode'}]</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -721,14 +701,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'genus'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_nests'}, {'predicate': '1'}, {'column': 'speciescode'}, {'column': 'spcode'}, {'group by': '1'}, {'column': 'genus'}, {'order by': '1'}, {'column': 'nestcount'}]</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -791,14 +766,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'asterisk': '1'}, {'table source item': '1'}, {'table': 'tlu_decaystage'}]</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -862,14 +832,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'event_id'}, {'table source item': '1'}, {'table': 'tbl_deadwood'}]</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -933,14 +898,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'event_id'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_deadwood'}, {'group by': '1'}, {'column': 'event_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -1006,14 +966,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'decaystage_descr'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_deadwood'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_decaystage'}, {'predicate': '1'}, {'column': 'decay'}, {'column': 'decaystage_id'}, {'where': '1'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'event_id'}, {'table source item': '1'}, {'table': 'tbl_deadwood'}, {'group by': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'group by': '1'}, {'column': 'decaystage_descr'}]</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -1077,14 +1032,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'event_id'}, {'select element': '1'}, {'column': 'deadwood_count'}, {'select element': '1'}, {'column': 'nest_count'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'join': '1'}, {'table source item': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'event_id'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_deadwood'}, {'group by': '1'}, {'column': 'event_id'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'join': '1'}, {'table source item': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'event_id'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_nests'}, {'group by': '1'}, {'column': 'event_id'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'order by': '1'}, {'column': 'deadwood_count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -1150,14 +1100,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'plot_id'}, {'select element': '1'}, {'column': 'x_coord'}, {'select element': '1'}, {'column': 'y_coord'}, {'select element': '1'}, {'column': 'directions'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'location_id'}, {'column': 'location_id'}, {'where': '1'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'event_id'}, {'table source item': '1'}, {'table': 'tbl_nests'}, {'group by': '1'}, {'column': 'event_id'}, {'column': 'event_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -1222,14 +1167,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'dbh'}, {'table source item': '1'}, {'table': 'tbl_overstory'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'predicate': '1'}, {'column': 'spcode'}, {'column': 'speciescode'}, {'where': '1'}, {'predicate': '1'}, {'column': 'genus'}]</t>
-        </is>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
@@ -1294,14 +1234,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'canpos_name'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_can_pos'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_overstory'}, {'predicate': '1'}, {'column': 'canpos_num'}, {'column': 'canpos'}, {'group by': '1'}, {'column': 'canpos_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
@@ -1368,14 +1303,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'commonname'}, {'select element': '1'}, {'column': 'treetag'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_overstory'}, {'predicate': '1'}, {'column': 'speciescode'}, {'column': 'spcode'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_tree_cond'}, {'predicate': '1'}, {'column': 'treecond'}, {'column': 'treecond_num'}, {'where': '1'}, {'predicate': '1'}, {'column': 'treecond_text'}]</t>
-        </is>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
@@ -1440,14 +1370,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'spcode'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_saplings'}, {'group by': '1'}, {'column': 'spcode'}, {'having': '1'}, {'predicate': '1'}, {'function': 'count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
@@ -1511,14 +1436,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_saplings'}, {'where': '1'}, {'predicate': '1'}, {'column': 'dclass3'}]</t>
-        </is>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
@@ -1582,14 +1502,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'spcode'}, {'select element': '1'}, {'function': 'max'}, {'column': 'density'}, {'table source item': '1'}, {'table': 'tbl_seedlings'}, {'group by': '1'}, {'column': 'spcode'}]</t>
-        </is>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
@@ -1653,14 +1568,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'event_id'}, {'table source item': '1'}, {'table': 'tbl_seedlings'}]</t>
-        </is>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
@@ -1725,14 +1635,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'directions'}, {'table source item': '1'}, {'table': 'tbl_tree_tags'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'predicate': '1'}, {'column': 'location_id'}, {'column': 'location_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'tree_tag_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
@@ -1796,14 +1701,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'sitedescription'}, {'select element': '1'}, {'column': 'loc_notes'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'where': '1'}, {'predicate': '1'}, {'column': 'elevation'}]</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
@@ -1868,14 +1768,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'event_id'}, {'select element': '1'}, {'column': 'coverclass_text'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_cover_cls'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_nests'}, {'predicate': '1'}, {'column': 'coverclass_num'}, {'column': 'cover'}, {'group by': '1'}, {'column': 'event_id'}, {'group by': '1'}, {'column': 'coverclass_text'}]</t>
-        </is>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
@@ -1939,14 +1834,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'witness_azimuth'}, {'select element': '1'}, {'column': 'witness_stake'}, {'table source item': '1'}, {'table': 'tbl_witnesstrees'}, {'where': '1'}, {'predicate': '1'}, {'column': 'witness_dbh'}]</t>
-        </is>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
@@ -2011,14 +1901,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'genus'}, {'select element': '1'}, {'column': 'species'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_witnesstrees'}, {'predicate': '1'}, {'column': 'speciescode'}, {'column': 'witness_spcode'}, {'group by': '1'}, {'column': 'genus'}, {'group by': '1'}, {'column': 'species'}]</t>
-        </is>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
@@ -2084,14 +1969,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'listedname'}, {'select element': '1'}, {'column': 'validname'}, {'table source item': '1'}, {'table': 'tlu_roads_and_trails'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'predicate': '1'}, {'column': 'trail'}, {'column': 'listedname'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'location_id'}, {'column': 'location_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'event_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
@@ -2156,14 +2036,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'state'}, {'select element': '1'}, {'column': 'county'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_placenames'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'predicate': '1'}, {'column': 'id'}, {'column': 'placenameid'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_tree_tags'}, {'predicate': '1'}, {'column': 'location_id'}, {'column': 'location_id'}, {'group by': '1'}, {'column': 'state'}, {'group by': '1'}, {'column': 'county'}]</t>
-        </is>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
@@ -2228,14 +2103,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'name'}, {'select element': '1'}, {'column': 'utme'}, {'select element': '1'}, {'column': 'utmn'}, {'table source item': '1'}, {'table': 'tlu_placenames'}, {'where': '1'}, {'predicate': '1'}, {'column': 'county'}]</t>
-        </is>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
@@ -2300,14 +2170,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'topoposition'}, {'table source item': '1'}, {'table': 'tlu_topo_position'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'predicate': '1'}, {'column': 'topo_position'}, {'column': 'id'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'x_coord'}, {'predicate': '1'}, {'column': 'y_coord'}]</t>
-        </is>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
@@ -2371,14 +2236,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'cond_num'}, {'table source item': '1'}, {'table': 'tlu_live_dead'}, {'where': '1'}, {'predicate': '1'}, {'column': 'cond_text'}]</t>
-        </is>
-      </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
@@ -2442,14 +2302,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'pres_text'}, {'table source item': '1'}, {'table': 'tlu_presence'}, {'where': '1'}, {'predicate': '1'}, {'column': 'pres_num'}]</t>
-        </is>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
@@ -2513,14 +2368,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'datum'}, {'table source item': '1'}, {'table': 'tsys_app_defaults'}]</t>
-        </is>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
@@ -2588,14 +2438,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'genus'}, {'select element': '1'}, {'column': 'species'}, {'select element': '1'}, {'column': 'commonname'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_overstory'}, {'predicate': '1'}, {'column': 'speciescode'}, {'column': 'spcode'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_tree_tags'}, {'predicate': '1'}, {'column': 'tree_tag_id'}, {'column': 'treetag'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'predicate': '1'}, {'column': 'location_id'}, {'column': 'location_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_placenames'}, {'predicate': '1'}, {'column': 'id'}, {'column': 'placenameid'}, {'where': '1'}, {'predicate': '1'}, {'column': 'county'}]</t>
-        </is>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
@@ -2661,14 +2506,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'species'}, {'select element': '1'}, {'column': 'commonname'}, {'table source item': '1'}, {'table': 'tlu_plantspecies'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'exists': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'overstory_id'}, {'table source item': '1'}, {'table': 'tbl_overstory'}, {'where': '1'}, {'predicate': '1'}, {'column': 'spcode'}, {'column': 'speciescode'}, {'negation': '1'}, {'predicate': '1'}, {'exists': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'seedlings_id'}, {'table source item': '1'}, {'table': 'tbl_seedlings'}, {'where': '1'}, {'predicate': '1'}, {'column': 'spcode'}, {'column': 'speciescode'}]</t>
-        </is>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
@@ -2732,14 +2572,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'xcoord'}, {'select element': '1'}, {'column': 'ycoord'}, {'table source item': '1'}, {'table': 'tbl_tree_tags'}, {'where': '1'}, {'predicate': '1'}, {'column': 'tag'}]</t>
-        </is>
-      </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
@@ -2804,14 +2639,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'coverclass_text'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_nests'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_cover_cls'}, {'predicate': '1'}, {'column': 'r2'}, {'column': 'coverclass_num'}, {'group by': '1'}, {'column': 'coverclass_text'}]</t>
-        </is>
-      </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
@@ -2877,14 +2707,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'pres_text'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_nests'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_presence'}, {'predicate': '1'}, {'column': 'presence_first'}, {'column': 'pres_num'}, {'group by': '1'}, {'column': 'pres_text'}]</t>
-        </is>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
@@ -2948,14 +2773,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'decay'}, {'select element': '1'}, {'function': 'max'}, {'column': 'mpd'}, {'table source item': '1'}, {'table': 'tbl_deadwood'}, {'group by': '1'}, {'column': 'decay'}]</t>
-        </is>
-      </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
@@ -3019,14 +2839,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'decay'}, {'select element': '1'}, {'function': 'max'}, {'column': 'length'}, {'table source item': '1'}, {'table': 'tbl_deadwood'}, {'group by': '1'}, {'column': 'decay'}]</t>
-        </is>
-      </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
@@ -3091,14 +2906,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'decaystage_descr'}, {'table source item': '1'}, {'table': 'tlu_decaystage'}, {'where': '1'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'decay'}, {'table source item': '1'}, {'table': 'tbl_deadwood'}, {'column': 'decaystage_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
@@ -3163,14 +2973,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'decaystage_descr'}, {'table source item': '1'}, {'table': 'tlu_decaystage'}, {'where': '1'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'decay'}, {'table source item': '1'}, {'table': 'tbl_deadwood'}, {'column': 'decaystage_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
@@ -3235,14 +3040,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'sitedescription'}, {'select element': '1'}, {'column': 'slope'}, {'select element': '1'}, {'column': 'aspect'}, {'select element': '1'}, {'column': 'loc_notes'}, {'select element': '1'}, {'column': 'accuracy_notes'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'where': '1'}, {'predicate': '1'}, {'column': 'slope_shape'}]</t>
-        </is>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
@@ -3306,14 +3106,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'quadname'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'where': '1'}, {'predicate': '1'}, {'column': 'topo_position'}]</t>
-        </is>
-      </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
@@ -3375,11 +3170,6 @@
       <c r="N41" t="inlineStr">
         <is>
           <t>N1</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'treecond_text'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_saplings'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_tree_cond'}, {'predicate': '1'}, {'column': 'condition'}, {'column': 'treecond_num'}, {'group by': '1'}, {'column': 'treecond_text'}]</t>
         </is>
       </c>
     </row>
